--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T10:36:36+00:00</t>
+    <t>2023-05-26T10:57:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T10:40:10+00:00</t>
+    <t>2023-06-22T11:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
